--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7444,7 +7445,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -7476,7 +7476,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -7492,6 +7491,6712 @@
       </c>
       <c r="H94" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0270</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1890</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>167.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.1833</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.1615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.9354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.2920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.1839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>157.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.0675</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.8735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>110.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.7009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.2094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.1486</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3202</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.3062</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>109.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.2949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.2522</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.0718</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.0697</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>141.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.9692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.6981</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.6697</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.4816</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.4803</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009872</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.4070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.3400</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.1349</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.9713</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.9073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.8834</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.8390</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.7818</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.7725</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.6751</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.6695</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.5825</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.5236</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.4297</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.4118</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.4096</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>58.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.3965</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.3846</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.3792</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.3436</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.3436</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.3387</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.3106</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.1939</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.1167</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.0493</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.9848</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.9598</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.9598</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.9598</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.9299</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.9276</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.8389</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.8375</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.8333</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.8171</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.8036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.7024</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6675</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.6311</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>30.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>48.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.6306</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>39.79</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5726</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5512</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007689</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5488</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.5212</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4392</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>006736</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国投瑞银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3536</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3212</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>51.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009873</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中欧责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005534</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007690</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国投瑞银新能源混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011562</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇添富稳健盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>159803</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>易方达中证浙江新动能ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>95.95</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14202,4 +14203,5950 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>265.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.2964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>159.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.8361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.6568</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4782</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.1099</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.4622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.0846</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.6762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.6351</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.1852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7762</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>56.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.6965</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.5663</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>64.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>71.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2558</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.2349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.0724</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.0499</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.0049</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.8288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>44.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7563</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.5738</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>44.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.4906</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3954</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3826</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2742</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1598</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1268</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0773</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0057</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9666</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9649</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9085</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8879</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8141</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7662</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7174</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7156</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6354</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5693</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5678</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5173</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4607</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4268</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3684</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3529</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2817</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1537</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>56.07</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20149,4 +20150,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>155</v>
+      </c>
+      <c r="D2" t="n">
+        <v>134.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>175</v>
+      </c>
+      <c r="D3" t="n">
+        <v>185.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93</v>
+      </c>
+      <c r="D4" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20158,7 +20159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20169,17 +20170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20189,14 +20210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>155</v>
-      </c>
-      <c r="D2" t="n">
-        <v>134.46</v>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -20205,14 +20248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>175</v>
-      </c>
-      <c r="D3" t="n">
-        <v>185.21</v>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>276.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5793</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -20221,14 +20286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>93</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85.03</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.1436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -20237,13 +20324,7561 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.6581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>119.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.3373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.6896</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.0929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.8775</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>102.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.3610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.3484</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.9388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.5855</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3416</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.3204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信圆丰三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.2531</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008969</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.1793</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.1729</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>56.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.0257</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.8284</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.7335</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.7176</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.6647</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.6136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.5911</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.4809</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.4475</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.1812</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.0216</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.8664</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.8608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.7959</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.7751</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.7585</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.7424</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.6810</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.6490</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.5449</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.4986</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.4951</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.4683</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.4169</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.3522</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.2486</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.1911</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.1678</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.1204</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.1189</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.1154</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.0955</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.0475</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.0475</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.9824</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008970</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>睿远均衡价值三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.9530</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.9154</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.8766</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.8711</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.7806</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012588</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.6984</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.5781</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.4697</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.4620</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.4347</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.4265</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3869</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3585</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2718</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012194</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>012589</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>南方港股通优势企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006930</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>65.69</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>006931</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>泰康中证港股通TMT主题指数C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>63.43</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>199</v>
+      </c>
+      <c r="D2" t="n">
+        <v>189.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>155</v>
+      </c>
+      <c r="D3" t="n">
+        <v>134.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>175</v>
+      </c>
+      <c r="D4" t="n">
+        <v>185.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>93</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>90</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>59.54</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27777,7 +27778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27788,17 +27789,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -27808,14 +27829,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>199</v>
-      </c>
-      <c r="D2" t="n">
-        <v>189.79</v>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -27824,14 +27867,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>155</v>
-      </c>
-      <c r="D3" t="n">
-        <v>134.46</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -27840,14 +27905,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>185.21</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6598</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -27856,14 +27943,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85.03</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -27872,13 +27981,2409 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8361</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6451</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6138</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5958</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4187</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009330</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2882</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011733</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华瑞祥一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009331</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013127</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013128</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>189.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>155</v>
+      </c>
+      <c r="D4" t="n">
+        <v>134.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>175</v>
+      </c>
+      <c r="D5" t="n">
+        <v>185.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>90</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>59.54</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>35.01</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>189.79</v>
+        <v>35.01</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D4" t="n">
-        <v>134.46</v>
+        <v>189.79</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D5" t="n">
-        <v>185.21</v>
+        <v>134.46</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="D6" t="n">
-        <v>85.03</v>
+        <v>185.21</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>93</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>90</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>59.54</v>
       </c>
     </row>
@@ -583,6 +600,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7741</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5804</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3759</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>59.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3070,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10688,7 +12433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16634,7 +18379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23340,7 +25085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26916,7 +28661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
+++ b/数据整理/stocks/港股/02382-舜宇光学科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>19.13</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>35.01</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>189.79</v>
+        <v>35.01</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
-        <v>134.46</v>
+        <v>189.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D6" t="n">
-        <v>185.21</v>
+        <v>134.46</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="D7" t="n">
-        <v>85.03</v>
+        <v>185.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>90</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>59.54</v>
       </c>
     </row>
@@ -600,6 +617,2530 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9965</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2822</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012647</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧洞见一年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008378</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全社会价值三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1845</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1087</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9836</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8971</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7807</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7750</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6764</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全合宜灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3648</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005241</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧时代智慧混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012920</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012921</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）A（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012922</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（人民币份额）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012923</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达全球成长精选混合（QDII）C（美元现汇份额）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012252</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信宏盈18个月持有混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014621</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信楚盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>513160</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华恒生港股通中国科技ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>016518</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰紫金创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016517</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰紫金创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014622</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信楚盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>017627</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012990</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015884</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012989</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘国证港股通50指数A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015885</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2327,7 +4868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4815,7 +7356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12433,7 +14974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18379,7 +20920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25085,7 +27626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28661,7 +31202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
